--- a/Documents/download_file/tra_download_list.xlsx
+++ b/Documents/download_file/tra_download_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="488">
   <si>
     <t>SubjectID</t>
   </si>
@@ -58,31 +58,1420 @@
     <t>Status</t>
   </si>
   <si>
+    <t>202-040</t>
+  </si>
+  <si>
+    <t>202-041</t>
+  </si>
+  <si>
+    <t>202-042</t>
+  </si>
+  <si>
+    <t>202-043</t>
+  </si>
+  <si>
+    <t>202-044</t>
+  </si>
+  <si>
     <t>203-058</t>
   </si>
   <si>
+    <t>292-004</t>
+  </si>
+  <si>
+    <t>292-007</t>
+  </si>
+  <si>
+    <t>292-009</t>
+  </si>
+  <si>
+    <t>292-011</t>
+  </si>
+  <si>
+    <t>292-012</t>
+  </si>
+  <si>
+    <t>292-013</t>
+  </si>
+  <si>
+    <t>292-014</t>
+  </si>
+  <si>
+    <t>292-015</t>
+  </si>
+  <si>
+    <t>292-016</t>
+  </si>
+  <si>
+    <t>292-018</t>
+  </si>
+  <si>
+    <t>292-019</t>
+  </si>
+  <si>
+    <t>292-020</t>
+  </si>
+  <si>
     <t>SV_1_Date</t>
   </si>
   <si>
+    <t>SV_2_Date</t>
+  </si>
+  <si>
+    <t>SV_11_Date</t>
+  </si>
+  <si>
+    <t>SV_12_Date</t>
+  </si>
+  <si>
+    <t>SV_6_Date</t>
+  </si>
+  <si>
+    <t>SV_7_Date</t>
+  </si>
+  <si>
+    <t>SV_8_Date</t>
+  </si>
+  <si>
+    <t>SV_9_Date</t>
+  </si>
+  <si>
+    <t>SV_10_Date</t>
+  </si>
+  <si>
+    <t>SV_5_Date</t>
+  </si>
+  <si>
+    <t>SV_3_Date</t>
+  </si>
+  <si>
+    <t>SV_4_Date</t>
+  </si>
+  <si>
+    <t>22-08-2023</t>
+  </si>
+  <si>
+    <t>30-08-2023</t>
+  </si>
+  <si>
     <t>31-07-2023</t>
   </si>
   <si>
+    <t>03-08-2023</t>
+  </si>
+  <si>
+    <t>15-08-2023</t>
+  </si>
+  <si>
+    <t>01-08-2023</t>
+  </si>
+  <si>
+    <t>08-08-2023</t>
+  </si>
+  <si>
+    <t>29-08-2023</t>
+  </si>
+  <si>
+    <t>05-09-2023</t>
+  </si>
+  <si>
+    <t>27-07-2023</t>
+  </si>
+  <si>
+    <t>10-08-2023</t>
+  </si>
+  <si>
+    <t>14-08-2023</t>
+  </si>
+  <si>
+    <t>21-08-2023</t>
+  </si>
+  <si>
+    <t>04-09-2023</t>
+  </si>
+  <si>
+    <t>26-07-2023</t>
+  </si>
+  <si>
+    <t>02-08-2023</t>
+  </si>
+  <si>
+    <t>16-08-2023</t>
+  </si>
+  <si>
+    <t>28-08-2023</t>
+  </si>
+  <si>
+    <t>18-08-2023</t>
+  </si>
+  <si>
+    <t>09-08-2023</t>
+  </si>
+  <si>
+    <t>06-09-2023</t>
+  </si>
+  <si>
+    <t>07-09-2023</t>
+  </si>
+  <si>
     <t>30-07-2023</t>
   </si>
   <si>
+    <t>07-08-2023</t>
+  </si>
+  <si>
+    <t>13-08-2023</t>
+  </si>
+  <si>
+    <t>20-08-2023</t>
+  </si>
+  <si>
+    <t>03-09-2023</t>
+  </si>
+  <si>
+    <t>25-07-2023</t>
+  </si>
+  <si>
+    <t>27-08-2023</t>
+  </si>
+  <si>
+    <t>17-08-2023</t>
+  </si>
+  <si>
+    <t>98bfeba3-949d-4260-8db2-d352863871fd</t>
+  </si>
+  <si>
+    <t>a990e58b-2561-46d2-b6c3-0a54f3e6a916</t>
+  </si>
+  <si>
+    <t>e8f578e1-ef10-4e9c-bc0f-29f9b31fbb23</t>
+  </si>
+  <si>
+    <t>4aeb5a91-f6ca-405f-be97-6935cdf15052</t>
+  </si>
+  <si>
+    <t>6331d847-d27d-4b68-b353-a6478d279716</t>
+  </si>
+  <si>
+    <t>5f122033-0e8f-48ea-a3e8-330fee07f81d</t>
+  </si>
+  <si>
+    <t>a797add2-c08a-4377-8bdf-b5e8afb386cb</t>
+  </si>
+  <si>
+    <t>8a340955-78dc-4f81-963f-bbcf275a6417</t>
+  </si>
+  <si>
+    <t>338f9079-0484-4443-9268-735747bc2ce4</t>
+  </si>
+  <si>
+    <t>b4fd8006-4679-4890-88af-260d47bd6e3a</t>
+  </si>
+  <si>
+    <t>47d3d9e5-2bef-43bc-b970-d81ca5cf0b6b</t>
+  </si>
+  <si>
+    <t>aeb0f70b-d9d2-46bf-80a0-e3a562dbe670</t>
+  </si>
+  <si>
+    <t>5efc7dd9-e7eb-49a0-9386-5f47e530013f</t>
+  </si>
+  <si>
+    <t>489ff967-ea50-4519-8e9d-305184bf68d8</t>
+  </si>
+  <si>
+    <t>3601518c-3586-42d6-9740-75eba793e61b</t>
+  </si>
+  <si>
+    <t>776ec7cd-51bd-4af5-9330-28d907589ee4</t>
+  </si>
+  <si>
+    <t>fa0b5b88-c4bc-499f-a389-8ca6e7e98ac8</t>
+  </si>
+  <si>
+    <t>243fe8e2-174d-458e-9131-a13a1bad97ba</t>
+  </si>
+  <si>
+    <t>ac5efb07-5390-46b7-861a-c938a7eca57d</t>
+  </si>
+  <si>
+    <t>64e68d45-4f46-425f-a6cd-cbbe8ccf12ae</t>
+  </si>
+  <si>
+    <t>c22d9f61-d1a7-483e-bfe0-8e5158fab198</t>
+  </si>
+  <si>
+    <t>6f176b76-3736-48bb-b7d3-c7e2b361e253</t>
+  </si>
+  <si>
     <t>624e9b60-e9fc-49a1-9790-d39661f5d570</t>
   </si>
   <si>
     <t>3729573c-c47d-4054-ad86-18f8dbaf0c7d</t>
   </si>
   <si>
+    <t>3bec1063-b0c2-47be-bd11-89e7715c26ca</t>
+  </si>
+  <si>
+    <t>ea88e11a-a4e9-49e6-b5e9-2ea7efabdab4</t>
+  </si>
+  <si>
+    <t>271f84b7-6816-44d5-9275-558b642df312</t>
+  </si>
+  <si>
+    <t>66d71d5d-b98e-4654-b5b7-8f3a936ee9a3</t>
+  </si>
+  <si>
+    <t>0f0f3cb4-2ec5-4343-8439-2f6dc9b5aefb</t>
+  </si>
+  <si>
+    <t>9cf49478-59f1-4bac-ad20-bbdcda945e8c</t>
+  </si>
+  <si>
+    <t>92aed2e4-e100-4c69-b4bd-0385e1a5b878</t>
+  </si>
+  <si>
+    <t>891274cb-2203-4b79-881b-7c86bd3b573f</t>
+  </si>
+  <si>
+    <t>1909985a-9f24-422b-8647-5201c4fcc1d8</t>
+  </si>
+  <si>
+    <t>a5295ac9-139d-4978-9140-c1cc9ac41c80</t>
+  </si>
+  <si>
+    <t>b05c67aa-4aa5-498c-93f7-a49bd877b551</t>
+  </si>
+  <si>
+    <t>b0447b46-37f7-43a9-b1a0-534569a78f1e</t>
+  </si>
+  <si>
+    <t>581b732b-e6ff-4243-907b-64202fe0aa97</t>
+  </si>
+  <si>
+    <t>277438d6-c5c5-4c16-a415-a6ff643e6037</t>
+  </si>
+  <si>
+    <t>a495c80f-1794-49f2-9565-f5fd5029231f</t>
+  </si>
+  <si>
+    <t>9ce74fd2-98c2-4e50-ad5a-9a72f3b27daa</t>
+  </si>
+  <si>
+    <t>7af4f8b8-4afd-443f-ab52-dbb2790ce65e</t>
+  </si>
+  <si>
+    <t>69a6a85d-feb4-473e-9e11-d678cfe0c753</t>
+  </si>
+  <si>
+    <t>612a176b-acd2-47dd-9ff2-32dd8fdeba61</t>
+  </si>
+  <si>
+    <t>7a574c38-8474-4645-bad1-9fa32665e0fc</t>
+  </si>
+  <si>
+    <t>4ec284b9-daa4-4487-9ea0-b1ae7e07488f</t>
+  </si>
+  <si>
+    <t>4f5a66ec-c54e-439c-8e63-08a33d7b1386</t>
+  </si>
+  <si>
+    <t>e2d5431f-c6d0-453c-a76e-f1b292bb8629</t>
+  </si>
+  <si>
+    <t>797e0de4-bd10-442b-8ec1-4bf6fe7f1099</t>
+  </si>
+  <si>
+    <t>c43638d5-0838-41d2-ad16-ca8c6ff31f4b</t>
+  </si>
+  <si>
+    <t>6c6ca92f-4b92-45ef-affd-76a96c3c9b7c</t>
+  </si>
+  <si>
+    <t>7bac566b-c3d2-49fc-9916-73890a8fe23e</t>
+  </si>
+  <si>
+    <t>eb506102-5ff3-4f67-996f-46d7489573a7</t>
+  </si>
+  <si>
+    <t>50396d16-8beb-4a91-a41e-c7bbd924093d</t>
+  </si>
+  <si>
+    <t>25d11339-c2b9-4f1f-bc5a-a485c47a510e</t>
+  </si>
+  <si>
+    <t>e067a027-abf1-4c0a-8cdc-8c4fc76e8bce</t>
+  </si>
+  <si>
+    <t>6058b316-6f07-4f78-9d4a-9e693a14a7d5</t>
+  </si>
+  <si>
+    <t>49d40a64-917a-4145-ad24-1fa1ddc9ce9a</t>
+  </si>
+  <si>
+    <t>82e1dccf-5700-47d6-9f94-91b4e1c388cf</t>
+  </si>
+  <si>
+    <t>fb1fd3e6-bc52-4a36-91a4-fb961d6074fe</t>
+  </si>
+  <si>
+    <t>aa64e281-48e2-4770-90f8-24b025f33c2c</t>
+  </si>
+  <si>
+    <t>6a68a44e-c35f-444c-9033-c4e6fbd9bde0</t>
+  </si>
+  <si>
+    <t>4136743b-3d27-4e9b-80ff-6572c65edc4a</t>
+  </si>
+  <si>
+    <t>7f830af8-8cbc-45f2-b0c5-a225d192afb6</t>
+  </si>
+  <si>
+    <t>d5dcdc91-f37b-4e82-9544-6bf1675c06d6</t>
+  </si>
+  <si>
+    <t>888009b0-f293-4b7e-a009-4282dc83fd05</t>
+  </si>
+  <si>
+    <t>b375a4f2-50d4-4267-a76e-a8e1fd51bd56</t>
+  </si>
+  <si>
+    <t>9a81ffd8-0df0-4beb-af96-9d832d8dc80d</t>
+  </si>
+  <si>
+    <t>c120f39e-0af0-48f7-98ae-69afb2a3800f</t>
+  </si>
+  <si>
+    <t>ecb38fdd-c991-489b-b79c-05a557c1be7b</t>
+  </si>
+  <si>
+    <t>64dc2fb4-470d-487c-9f41-3c99a4e7a671</t>
+  </si>
+  <si>
+    <t>47d8c3c2-0d8f-4cbc-aedb-e76b9cd2159d</t>
+  </si>
+  <si>
+    <t>08e2f06c-6825-4b27-a4f4-bd1f700ca6c0</t>
+  </si>
+  <si>
+    <t>22951e39-0d48-4333-b74b-6d877a3d7b00</t>
+  </si>
+  <si>
+    <t>6e6e2d7e-9314-46c2-8433-b56d3bcc30e3</t>
+  </si>
+  <si>
+    <t>37854d0d-d47b-461c-80b2-1b8b22496f82</t>
+  </si>
+  <si>
+    <t>68b396d9-9b74-438a-8f8a-c3170363a9d0</t>
+  </si>
+  <si>
+    <t>1e5ecb07-674c-41fc-b897-df2986ca5cfd</t>
+  </si>
+  <si>
+    <t>26dabd01-c600-48db-adc5-5a38211554a8</t>
+  </si>
+  <si>
+    <t>8e6e6258-008b-4ee3-92ca-760b44754417</t>
+  </si>
+  <si>
+    <t>627d91a3-971c-49f7-8a44-e0f7678e4a1d</t>
+  </si>
+  <si>
+    <t>1aed1242-c46b-43b5-bb62-cc661b48d597</t>
+  </si>
+  <si>
+    <t>d3eb6fd0-860a-46a9-a7e7-8c7898ba80e3</t>
+  </si>
+  <si>
+    <t>0751a47e-32c6-457c-b0ee-888db00f8af9</t>
+  </si>
+  <si>
+    <t>19c4d86b-4f6d-4a3b-8b25-f41db1f5bb4d</t>
+  </si>
+  <si>
+    <t>1f1017f5-4cf8-4c6e-b1ec-cdecaf8c3546</t>
+  </si>
+  <si>
+    <t>344fb580-9bd7-492f-a4a8-c34e2a75f242</t>
+  </si>
+  <si>
+    <t>7577184a-3c22-4edb-9ae3-dc5bd7f3f3d4</t>
+  </si>
+  <si>
+    <t>818277d5-4fcd-4830-b74d-32b9f66dc226</t>
+  </si>
+  <si>
+    <t>7ae86d0a-48a1-4572-ad58-e29b021fbb38</t>
+  </si>
+  <si>
+    <t>a1805e7a-db24-4e97-9af1-714353b65ce8</t>
+  </si>
+  <si>
+    <t>53579668-a53a-447c-87aa-8232db4a677b</t>
+  </si>
+  <si>
+    <t>f4622b8b-2476-474b-9120-21b4d92c004a</t>
+  </si>
+  <si>
+    <t>42ec0943-405b-4b8c-adec-6ab263595b48</t>
+  </si>
+  <si>
+    <t>6378a4fa-c29c-4b86-9da8-019fe4f8a0b8</t>
+  </si>
+  <si>
+    <t>0d3151d6-6473-4c7c-92f4-9009664eee26</t>
+  </si>
+  <si>
+    <t>b8d57361-6e6c-442b-acf8-bfec267121c6</t>
+  </si>
+  <si>
+    <t>d0634986-f1ea-44c7-b0f6-6084c6633c26</t>
+  </si>
+  <si>
+    <t>e908c557-ce2c-4482-b035-6e3b5ce2de3e</t>
+  </si>
+  <si>
+    <t>a401dd12-2f46-414d-a9f8-b87a172944a6</t>
+  </si>
+  <si>
+    <t>40f2d407-e0d9-4a16-a65a-882335342a18</t>
+  </si>
+  <si>
+    <t>fddfcc37-36b4-441e-a779-2ffa29955689</t>
+  </si>
+  <si>
+    <t>6fed520d-6ec3-4966-bc69-bfb1404ac76b</t>
+  </si>
+  <si>
+    <t>5cad8196-72ea-4fb4-b557-9fee3112f999</t>
+  </si>
+  <si>
+    <t>d80a7e37-285e-443b-94b3-721940a70f09</t>
+  </si>
+  <si>
+    <t>fc473dc2-872c-47ef-8ae9-1c88364dfbda</t>
+  </si>
+  <si>
+    <t>c8a409db-0514-4f52-b762-b76c4538028b</t>
+  </si>
+  <si>
+    <t>af26be07-0445-42c5-a1d5-8c1a3a805f66</t>
+  </si>
+  <si>
+    <t>5b85e541-f471-420e-9824-37247f5862de</t>
+  </si>
+  <si>
+    <t>b7f9961d-498b-436a-8a97-ec5b42b9db99</t>
+  </si>
+  <si>
+    <t>f265cb5a-7de1-48bb-ad4d-781add106aac</t>
+  </si>
+  <si>
+    <t>acc3b21a-0a69-45aa-adf8-6d3db81731a8</t>
+  </si>
+  <si>
+    <t>bdffcc3b-1acd-4b3b-85a6-518e5c9f5227</t>
+  </si>
+  <si>
+    <t>e962e0c1-2743-4f6f-a44f-0a3c6ebdbdf1</t>
+  </si>
+  <si>
+    <t>868baff9-603f-41c2-bff3-75513ed9dc9e</t>
+  </si>
+  <si>
+    <t>5afaf909-99bd-4ebc-a41e-3055d8426d09</t>
+  </si>
+  <si>
+    <t>a8c9e354-bf99-47ea-a73f-c1b792b7d0f7</t>
+  </si>
+  <si>
+    <t>366dd0ca-028d-4ed0-85b4-5214c6cb2c7b</t>
+  </si>
+  <si>
+    <t>7ee57321-0355-4502-9c30-8f4413ed1a14</t>
+  </si>
+  <si>
+    <t>35a0c4e0-3e69-4802-aae3-6f3dab719fc4</t>
+  </si>
+  <si>
+    <t>06137c8f-b603-43a2-bea8-71b82858d284</t>
+  </si>
+  <si>
+    <t>a35766bc-e7b6-450c-9e5a-79dae36955b7</t>
+  </si>
+  <si>
+    <t>187a9b9c-cd82-4d31-ab79-a2a5ae9441d2</t>
+  </si>
+  <si>
+    <t>7f1cf7c3-83b0-4850-b6fc-413205fa5bca</t>
+  </si>
+  <si>
+    <t>31e96679-3f68-4ef6-9f18-bd3187cef3cc</t>
+  </si>
+  <si>
+    <t>f92d1646-f769-4e00-bc94-a749f817ac6a</t>
+  </si>
+  <si>
+    <t>878bc8b4-c7b3-49d5-b55f-ac0e8446baa6</t>
+  </si>
+  <si>
+    <t>6563792f-b14b-422b-ab9b-4e18d39d985b</t>
+  </si>
+  <si>
+    <t>9617eff8-2ad7-4bd7-9863-fa3c04f76948</t>
+  </si>
+  <si>
+    <t>0b8f6f0c-f3c5-42a1-acae-aef272d4b1d9</t>
+  </si>
+  <si>
+    <t>0a9538ec-a9ae-4659-b5c6-c2c408ff616c</t>
+  </si>
+  <si>
+    <t>f037ef82-8cc9-40d8-9618-d51a671400a3</t>
+  </si>
+  <si>
+    <t>1023aaf6-49fa-4ea9-9fdd-70126da2fa19</t>
+  </si>
+  <si>
+    <t>82ea864c-4847-4bd9-8ad5-2f32e0391f97</t>
+  </si>
+  <si>
+    <t>cc7577ff-1cee-410e-a50a-4bde2a4bd60c</t>
+  </si>
+  <si>
+    <t>6a555915-ac8a-4670-a6e9-9c54c5d5eae0</t>
+  </si>
+  <si>
+    <t>3aff4911-c433-4dc3-9d6f-a63ebc252406</t>
+  </si>
+  <si>
+    <t>198cbea5-f76e-4b0f-91f0-e78b8427e34f</t>
+  </si>
+  <si>
+    <t>49ad76b8-5bba-44e0-beda-78797a6c586b</t>
+  </si>
+  <si>
+    <t>fbdf7381-7c88-4380-a041-750e19c5a4c1</t>
+  </si>
+  <si>
+    <t>712a503a-ab09-4ae8-b956-f3ecdef2ee7b</t>
+  </si>
+  <si>
+    <t>e3803433-87a8-48c6-8d3c-38ca1913f5cb</t>
+  </si>
+  <si>
+    <t>d9d979a6-b76f-4a7f-828a-36202c6d9976</t>
+  </si>
+  <si>
+    <t>8adaf3a0-c542-4325-8cbc-22e0fcc03aa4</t>
+  </si>
+  <si>
+    <t>ad3b82fd-9a4b-4963-a6d5-a1ecbd5c0fa7</t>
+  </si>
+  <si>
+    <t>d6516edf-798c-4f83-93af-a3d7ed58f5ba</t>
+  </si>
+  <si>
+    <t>1ec46895-82da-4b60-8cd7-099a143fc266</t>
+  </si>
+  <si>
+    <t>2c3f8688-0294-47a7-a0a4-5527cd2d7db9</t>
+  </si>
+  <si>
+    <t>7630e27f-7bce-4bb9-9b16-913cd8a82239</t>
+  </si>
+  <si>
+    <t>a7d782e3-01fa-4244-9138-c291beeaf108</t>
+  </si>
+  <si>
+    <t>2c346eab-223b-4e0a-a26c-1e45d66cf141</t>
+  </si>
+  <si>
+    <t>84cdde56-7a4f-4125-90d8-a83fca12933b</t>
+  </si>
+  <si>
+    <t>6fbc58ab-11f1-49d8-b64a-9ae69c407ab8</t>
+  </si>
+  <si>
+    <t>76acfe89-b910-40e8-8d7c-a304983b995a</t>
+  </si>
+  <si>
+    <t>b5b5a5bd-0ba1-456d-ae1b-475c9cd0b350</t>
+  </si>
+  <si>
+    <t>fdaff37b-dd2e-4c0c-87bc-f84467dba5ca</t>
+  </si>
+  <si>
+    <t>321280bf-468e-4f67-b948-17b3872891bc</t>
+  </si>
+  <si>
+    <t>9787fb8b-a05f-46ab-96b5-626a3e87c56b</t>
+  </si>
+  <si>
+    <t>abdf6bc3-aba3-4863-b876-cdfc86a50a43</t>
+  </si>
+  <si>
+    <t>df4c24c1-b10a-44ee-a214-2ffe8d8ac066</t>
+  </si>
+  <si>
+    <t>310445d9-3f48-46bc-b5b6-cf4aa979496b</t>
+  </si>
+  <si>
+    <t>8732cd09-1523-4fbd-ae87-00b4c08ae07f</t>
+  </si>
+  <si>
+    <t>b4246e75-1ef4-4001-89b5-cadc6536bd1c</t>
+  </si>
+  <si>
+    <t>8ac48938-6b2c-4817-b9f8-e03eaccc8199</t>
+  </si>
+  <si>
+    <t>222c9d38-1a50-4521-9b7b-fa44a780e707</t>
+  </si>
+  <si>
+    <t>1d2a661d-37e6-4ee5-8572-b3c8fc103665</t>
+  </si>
+  <si>
+    <t>1182fa0f-cc2e-42ec-8baf-8a07e9a9593e</t>
+  </si>
+  <si>
+    <t>55a68985-ff4b-437f-b052-c63c9696552a</t>
+  </si>
+  <si>
+    <t>6b13275b-2c26-45ff-9e19-1f5c72f415e4</t>
+  </si>
+  <si>
+    <t>d961e2aa-dbb8-49a0-b025-5ca26902fa86</t>
+  </si>
+  <si>
+    <t>c2f7b82b-7fe0-446c-af6f-1de9736c8201</t>
+  </si>
+  <si>
+    <t>e9d500cd-4f9c-45e8-af04-c69233187b1d</t>
+  </si>
+  <si>
+    <t>c09aac25-584f-41dd-a09c-9d47f080edd4</t>
+  </si>
+  <si>
+    <t>4783d1a7-6aeb-49b9-8724-f383ea4cd3cf</t>
+  </si>
+  <si>
+    <t>0a71bd10-0aa9-4e4a-ae44-e2a1465d6e9e</t>
+  </si>
+  <si>
+    <t>ece0d156-53ad-4420-ae64-69da38277b97</t>
+  </si>
+  <si>
+    <t>4853a9d5-90fc-4b05-bf7d-bea815a1dc29</t>
+  </si>
+  <si>
+    <t>c82aa30d-cf1b-4f34-a339-41a306ada018</t>
+  </si>
+  <si>
+    <t>0b85fc11-b8b1-44be-bc7e-ae0e5f716226</t>
+  </si>
+  <si>
+    <t>f3d94d5b-1023-4446-af3b-6098bf27affe</t>
+  </si>
+  <si>
+    <t>de493932-7568-485a-a838-f38dd3b033c9</t>
+  </si>
+  <si>
+    <t>f2f66d53-c98e-49f2-9968-a4c0b2b4a1e8</t>
+  </si>
+  <si>
+    <t>8b4d4e5b-8afc-490d-9cc7-cbebcc6509e9</t>
+  </si>
+  <si>
+    <t>21d8a05c-ec03-4776-964f-bb35bb6febde</t>
+  </si>
+  <si>
+    <t>91550223-31fc-4f4d-938d-fa4cc9d112bb</t>
+  </si>
+  <si>
+    <t>9b779926-2069-42dc-ac2f-da9f6034599a</t>
+  </si>
+  <si>
+    <t>4b82cb7d-4a63-483b-ae1e-ac6e56ea714e</t>
+  </si>
+  <si>
+    <t>2e4be392-a8a8-4f74-b14c-0a7a4f47065f</t>
+  </si>
+  <si>
+    <t>73d6e442-98f3-42f9-8082-38ab296db55f</t>
+  </si>
+  <si>
+    <t>8ecd99da-426a-450e-8715-d0c7a5a6d7a4</t>
+  </si>
+  <si>
+    <t>27a43be7-ba7f-4c66-b74c-3110d1f7eb10</t>
+  </si>
+  <si>
+    <t>72c830c8-e0a2-455d-b2f2-27af4c947c4d</t>
+  </si>
+  <si>
+    <t>cc8d245c-a3b7-4948-a1cd-57d9443d7975</t>
+  </si>
+  <si>
+    <t>d31ff884-dd15-4ecc-bbc8-5a752d95142d</t>
+  </si>
+  <si>
+    <t>7215e70b-f1d0-4358-8426-63d6f999b6eb</t>
+  </si>
+  <si>
+    <t>51cfa8fb-a9b2-4eec-9eb5-29b120ccb95e</t>
+  </si>
+  <si>
+    <t>1f6d0ad8-2817-4bd2-a92f-26c62c81ee4d</t>
+  </si>
+  <si>
     <t>In progress</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-040\Right_Plantar_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-040\Right_Plantar_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-040\Right_Plantar_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-040\Right_Plantar_1\ImageColl_4</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-041\Right_Plantar_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-041\Right_Plantar_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-041\Right_Plantar_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-041\Right_Plantar_1\ImageColl_4</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-041\Right_Plantar_1\ImageColl_5</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-041\Right_Plantar_1\ImageColl_6</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-041\Right_Plantar_1\ImageColl_7</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-041\Right_Plantar_1\ImageColl_8</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-042\Left_Lateral_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-042\Left_Lateral_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-042\Left_Lateral_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-042\Left_Lateral_1\ImageColl_4</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-043\Right_Plantar_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-043\Right_Plantar_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-044\Right_Plantar_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-044\Right_Plantar_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-044\Right_Plantar_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_202-044\Right_Plantar_1\ImageColl_4</t>
+  </si>
+  <si>
     <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_058\Left_PlantarToes_1\ImageColl_2</t>
   </si>
   <si>
     <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_058\Left_PlantarToes_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_59</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_60</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_61</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_62</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_63</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_64</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_65</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_66</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_67</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_004\Left_Plantar_1\ImageColl_68</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_32</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_33</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_34</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_35</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_36</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_37</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_38</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_39</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_40</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_41</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_42</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_43</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_44</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_45</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_46</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_47</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_48</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_49</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_50</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_51</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_52</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_53</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_54</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_55</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_56</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_57</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_58</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_59</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_60</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_61</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_62</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_63</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_64</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_65</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_66</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_67</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_68</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_69</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_70</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_007\Right_Plantar_1\ImageColl_71</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_15</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_16</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_17</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_18</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_19</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_20</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_21</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_22</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_23</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_24</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_25</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_26</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_27</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_009\Right_Plantar_1\ImageColl_28</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_43</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_44</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_45</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_46</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_47</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_48</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_49</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_50</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_011\Right_Plantar_1\ImageColl_51</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_31</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_32</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_33</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_34</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_35</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_36</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_37</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_38</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_39</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_40</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_41</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_42</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_43</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_012\Right_PlantarToes_1\ImageColl_44</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_19</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_20</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_21</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_22</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_23</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_24</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_25</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_26</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_27</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_28</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_29</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_30</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_31</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_32</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_33</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_34</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_35</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_013\Left_Plantar_1\ImageColl_36</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_8</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_9</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_10</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_11</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_12</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_13</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_14</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_16</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_17</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_18</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_19</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_20</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_21</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_22</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_23</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_24</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_25</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_26</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_27</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_014\Right_Plantar_1\ImageColl_28</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_6</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_7</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_8</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_9</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_10</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_11</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_12</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_13</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_14</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_15</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_16</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_17</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_18</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_19</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_20</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_21</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_015\Left_Plantar_1\ImageColl_22</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_4</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_6</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_7</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_8</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_9</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_10</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_11</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_12</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_13</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_14</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_016\Right_Plantar_1\ImageColl_15</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_018\Left_DorsalToes_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_018\Left_DorsalToes_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_018\Left_DorsalToes_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_018\Left_DorsalToes_1\ImageColl_4</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_018\Left_DorsalToes_1\ImageColl_5</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_018\Left_DorsalToes_1\ImageColl_6</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_018\Left_DorsalToes_1\ImageColl_7</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_019\Right_PlantarToes_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_019\Right_PlantarToes_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_019\Right_PlantarToes_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_019\Right_PlantarToes_1\ImageColl_4</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_019\Right_PlantarToes_1\ImageColl_5</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_020\Left_PlantarToes_1\ImageColl_1</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_020\Left_PlantarToes_1\ImageColl_2</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_020\Left_PlantarToes_1\ImageColl_3</t>
+  </si>
+  <si>
+    <t>D:\SpectralView\Diabetic_Foot_Ulcer\Patient_020\Left_PlantarToes_1\ImageColl_4</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_6331d847-d27d-4b68-b353-a6478d279716.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_5f122033-0e8f-48ea-a3e8-330fee07f81d.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_a797add2-c08a-4377-8bdf-b5e8afb386cb.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_8a340955-78dc-4f81-963f-bbcf275a6417.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_338f9079-0484-4443-9268-735747bc2ce4.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_b4fd8006-4679-4890-88af-260d47bd6e3a.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_47d3d9e5-2bef-43bc-b970-d81ca5cf0b6b.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_aeb0f70b-d9d2-46bf-80a0-e3a562dbe670.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_5efc7dd9-e7eb-49a0-9386-5f47e530013f.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_489ff967-ea50-4519-8e9d-305184bf68d8.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_3601518c-3586-42d6-9740-75eba793e61b.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_776ec7cd-51bd-4af5-9330-28d907589ee4.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_fa0b5b88-c4bc-499f-a389-8ca6e7e98ac8.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_243fe8e2-174d-458e-9131-a13a1bad97ba.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_ac5efb07-5390-46b7-861a-c938a7eca57d.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_64e68d45-4f46-425f-a6cd-cbbe8ccf12ae.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_c22d9f61-d1a7-483e-bfe0-8e5158fab198.tif'}</t>
+  </si>
+  <si>
+    <t>{'PseudoColor/PseudoColor_6f176b76-3736-48bb-b7d3-c7e2b361e253.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_3729573c-c47d-4054-ad86-18f8dbaf0c7d.tif', 'Assessing/Assessing_3729573c-c47d-4054-ad86-18f8dbaf0c7d_DFU_Patient_058_Left_PlantarToes_1_BAO_Assessing.png'}</t>
@@ -446,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,60 +1887,5212 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>3872</v>
+        <v>2181</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>3873</v>
+        <v>2182</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>2183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>2184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>2185</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" t="s">
+        <v>468</v>
+      </c>
+      <c r="O6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>2186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" t="s">
+        <v>469</v>
+      </c>
+      <c r="O7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>2187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J8" t="s">
+        <v>470</v>
+      </c>
+      <c r="O8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>2188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" t="s">
+        <v>471</v>
+      </c>
+      <c r="O9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>2189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J10" t="s">
+        <v>472</v>
+      </c>
+      <c r="O10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>2190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" t="s">
+        <v>281</v>
+      </c>
+      <c r="J11" t="s">
+        <v>473</v>
+      </c>
+      <c r="O11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>2191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J12" t="s">
+        <v>474</v>
+      </c>
+      <c r="O12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>2192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I13" t="s">
+        <v>283</v>
+      </c>
+      <c r="J13" t="s">
+        <v>475</v>
+      </c>
+      <c r="O13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>2193</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" t="s">
+        <v>284</v>
+      </c>
+      <c r="J14" t="s">
+        <v>476</v>
+      </c>
+      <c r="O14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>2194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" t="s">
+        <v>285</v>
+      </c>
+      <c r="J15" t="s">
+        <v>477</v>
+      </c>
+      <c r="O15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>2195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" t="s">
+        <v>286</v>
+      </c>
+      <c r="J16" t="s">
+        <v>478</v>
+      </c>
+      <c r="O16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>2196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" t="s">
+        <v>287</v>
+      </c>
+      <c r="J17" t="s">
+        <v>479</v>
+      </c>
+      <c r="O17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>2197</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" t="s">
+        <v>480</v>
+      </c>
+      <c r="O18" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>2198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" t="s">
+        <v>481</v>
+      </c>
+      <c r="O19" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>2199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" t="s">
+        <v>482</v>
+      </c>
+      <c r="O20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I21" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" t="s">
+        <v>483</v>
+      </c>
+      <c r="O21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>2201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I22" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" t="s">
+        <v>484</v>
+      </c>
+      <c r="O22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>2202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" t="s">
+        <v>270</v>
+      </c>
+      <c r="I23" t="s">
+        <v>293</v>
+      </c>
+      <c r="J23" t="s">
+        <v>485</v>
+      </c>
+      <c r="O23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>3894</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>270</v>
+      </c>
+      <c r="I24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>3895</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I25" t="s">
+        <v>295</v>
+      </c>
+      <c r="K25" t="s">
+        <v>486</v>
+      </c>
+      <c r="O25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>4203</v>
+      </c>
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" t="s">
+        <v>271</v>
+      </c>
+      <c r="I26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>4204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>4205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>271</v>
+      </c>
+      <c r="I28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>4206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>4207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>4208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
+        <v>271</v>
+      </c>
+      <c r="I31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>4209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>271</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>4210</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" t="s">
+        <v>271</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>4211</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>4212</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" t="s">
+        <v>271</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>4301</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>4302</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>270</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>4303</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
+        <v>270</v>
+      </c>
+      <c r="I38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>4304</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
+        <v>270</v>
+      </c>
+      <c r="I39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>4305</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>4306</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" t="s">
+        <v>270</v>
+      </c>
+      <c r="I41" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>4307</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" t="s">
+        <v>270</v>
+      </c>
+      <c r="I42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>4308</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" t="s">
+        <v>270</v>
+      </c>
+      <c r="I43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>4309</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" t="s">
+        <v>270</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>4310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" t="s">
+        <v>270</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>4311</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" t="s">
+        <v>270</v>
+      </c>
+      <c r="I46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>4312</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" t="s">
+        <v>270</v>
+      </c>
+      <c r="I47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>4313</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" t="s">
+        <v>270</v>
+      </c>
+      <c r="I48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>4314</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" t="s">
+        <v>270</v>
+      </c>
+      <c r="I49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>4315</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>4316</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" t="s">
+        <v>270</v>
+      </c>
+      <c r="I51" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>4317</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52" t="s">
+        <v>270</v>
+      </c>
+      <c r="I52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>4318</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" t="s">
+        <v>270</v>
+      </c>
+      <c r="I53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>4319</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" t="s">
+        <v>270</v>
+      </c>
+      <c r="I54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>4320</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" t="s">
+        <v>270</v>
+      </c>
+      <c r="I55" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>4321</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" t="s">
+        <v>270</v>
+      </c>
+      <c r="I56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>4322</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>270</v>
+      </c>
+      <c r="I57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>4323</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" t="s">
+        <v>270</v>
+      </c>
+      <c r="I58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>4324</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" t="s">
+        <v>270</v>
+      </c>
+      <c r="I59" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>4325</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>4326</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>4327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" t="s">
+        <v>270</v>
+      </c>
+      <c r="I62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>4328</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" t="s">
+        <v>270</v>
+      </c>
+      <c r="I63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>4329</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" t="s">
+        <v>270</v>
+      </c>
+      <c r="I64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>4330</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" t="s">
+        <v>270</v>
+      </c>
+      <c r="I65" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>4331</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" t="s">
+        <v>270</v>
+      </c>
+      <c r="I66" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>4332</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>4333</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" t="s">
+        <v>270</v>
+      </c>
+      <c r="I68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>4334</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" t="s">
+        <v>270</v>
+      </c>
+      <c r="I69" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>4335</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" t="s">
+        <v>270</v>
+      </c>
+      <c r="I70" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>4336</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" t="s">
+        <v>270</v>
+      </c>
+      <c r="I71" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>4337</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" t="s">
+        <v>144</v>
+      </c>
+      <c r="G72" t="s">
+        <v>270</v>
+      </c>
+      <c r="I72" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>4338</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" t="s">
+        <v>145</v>
+      </c>
+      <c r="G73" t="s">
+        <v>270</v>
+      </c>
+      <c r="I73" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>4339</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" t="s">
+        <v>270</v>
+      </c>
+      <c r="I74" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>4340</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" t="s">
+        <v>270</v>
+      </c>
+      <c r="I75" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>4390</v>
+      </c>
+      <c r="B76" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" t="s">
+        <v>148</v>
+      </c>
+      <c r="G76" t="s">
+        <v>270</v>
+      </c>
+      <c r="I76" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>4391</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" t="s">
+        <v>270</v>
+      </c>
+      <c r="I77" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>4392</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" t="s">
+        <v>270</v>
+      </c>
+      <c r="I78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>4393</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" t="s">
+        <v>270</v>
+      </c>
+      <c r="I79" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>4394</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" t="s">
+        <v>270</v>
+      </c>
+      <c r="I80" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>4395</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" t="s">
+        <v>153</v>
+      </c>
+      <c r="G81" t="s">
+        <v>270</v>
+      </c>
+      <c r="I81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>4396</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>154</v>
+      </c>
+      <c r="G82" t="s">
+        <v>270</v>
+      </c>
+      <c r="I82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>4397</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F83" t="s">
+        <v>155</v>
+      </c>
+      <c r="G83" t="s">
+        <v>270</v>
+      </c>
+      <c r="I83" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>4398</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" t="s">
+        <v>156</v>
+      </c>
+      <c r="G84" t="s">
+        <v>270</v>
+      </c>
+      <c r="I84" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>4399</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" t="s">
+        <v>157</v>
+      </c>
+      <c r="G85" t="s">
+        <v>270</v>
+      </c>
+      <c r="I85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>4400</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86" t="s">
+        <v>270</v>
+      </c>
+      <c r="I86" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>4401</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" t="s">
+        <v>159</v>
+      </c>
+      <c r="G87" t="s">
+        <v>270</v>
+      </c>
+      <c r="I87" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>4402</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" t="s">
+        <v>160</v>
+      </c>
+      <c r="G88" t="s">
+        <v>270</v>
+      </c>
+      <c r="I88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>4403</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" t="s">
+        <v>63</v>
+      </c>
+      <c r="F89" t="s">
+        <v>161</v>
+      </c>
+      <c r="G89" t="s">
+        <v>270</v>
+      </c>
+      <c r="I89" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>4480</v>
+      </c>
+      <c r="B90" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" t="s">
+        <v>162</v>
+      </c>
+      <c r="G90" t="s">
+        <v>270</v>
+      </c>
+      <c r="I90" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>4481</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" t="s">
+        <v>163</v>
+      </c>
+      <c r="G91" t="s">
+        <v>270</v>
+      </c>
+      <c r="I91" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>4482</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" t="s">
+        <v>270</v>
+      </c>
+      <c r="I92" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>4483</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" t="s">
+        <v>165</v>
+      </c>
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
+      <c r="I93" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>4484</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" t="s">
+        <v>166</v>
+      </c>
+      <c r="G94" t="s">
+        <v>270</v>
+      </c>
+      <c r="I94" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>4485</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" t="s">
+        <v>167</v>
+      </c>
+      <c r="G95" t="s">
+        <v>270</v>
+      </c>
+      <c r="I95" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>4486</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" t="s">
+        <v>168</v>
+      </c>
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
+      <c r="I96" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>4487</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97" t="s">
+        <v>169</v>
+      </c>
+      <c r="G97" t="s">
+        <v>270</v>
+      </c>
+      <c r="I97" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>4488</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" t="s">
+        <v>170</v>
+      </c>
+      <c r="G98" t="s">
+        <v>270</v>
+      </c>
+      <c r="I98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>4519</v>
+      </c>
+      <c r="B99" t="s">
         <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99" t="s">
+        <v>171</v>
+      </c>
+      <c r="G99" t="s">
+        <v>270</v>
+      </c>
+      <c r="I99" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>4520</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" t="s">
+        <v>58</v>
+      </c>
+      <c r="F100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G100" t="s">
+        <v>270</v>
+      </c>
+      <c r="I100" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>4521</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" t="s">
+        <v>58</v>
+      </c>
+      <c r="F101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G101" t="s">
+        <v>270</v>
+      </c>
+      <c r="I101" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1">
+        <v>4522</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" t="s">
+        <v>58</v>
+      </c>
+      <c r="F102" t="s">
+        <v>174</v>
+      </c>
+      <c r="G102" t="s">
+        <v>270</v>
+      </c>
+      <c r="I102" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1">
+        <v>4523</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" t="s">
+        <v>58</v>
+      </c>
+      <c r="F103" t="s">
+        <v>175</v>
+      </c>
+      <c r="G103" t="s">
+        <v>270</v>
+      </c>
+      <c r="I103" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1">
+        <v>4524</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" t="s">
+        <v>58</v>
+      </c>
+      <c r="F104" t="s">
+        <v>176</v>
+      </c>
+      <c r="G104" t="s">
+        <v>270</v>
+      </c>
+      <c r="I104" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1">
+        <v>4525</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" t="s">
+        <v>177</v>
+      </c>
+      <c r="G105" t="s">
+        <v>270</v>
+      </c>
+      <c r="I105" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1">
+        <v>4526</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" t="s">
+        <v>178</v>
+      </c>
+      <c r="G106" t="s">
+        <v>270</v>
+      </c>
+      <c r="I106" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1">
+        <v>4527</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" t="s">
+        <v>179</v>
+      </c>
+      <c r="G107" t="s">
+        <v>270</v>
+      </c>
+      <c r="I107" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1">
+        <v>4528</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" t="s">
+        <v>180</v>
+      </c>
+      <c r="G108" t="s">
+        <v>270</v>
+      </c>
+      <c r="I108" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="1">
+        <v>4529</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" t="s">
+        <v>68</v>
+      </c>
+      <c r="F109" t="s">
+        <v>181</v>
+      </c>
+      <c r="G109" t="s">
+        <v>270</v>
+      </c>
+      <c r="I109" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>4530</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" t="s">
+        <v>68</v>
+      </c>
+      <c r="F110" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" t="s">
+        <v>270</v>
+      </c>
+      <c r="I110" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1">
+        <v>4531</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" t="s">
+        <v>68</v>
+      </c>
+      <c r="F111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G111" t="s">
+        <v>270</v>
+      </c>
+      <c r="I111" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1">
+        <v>4532</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112" t="s">
+        <v>68</v>
+      </c>
+      <c r="F112" t="s">
+        <v>184</v>
+      </c>
+      <c r="G112" t="s">
+        <v>270</v>
+      </c>
+      <c r="I112" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1">
+        <v>4551</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" t="s">
+        <v>185</v>
+      </c>
+      <c r="G113" t="s">
+        <v>270</v>
+      </c>
+      <c r="I113" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1">
+        <v>4552</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" t="s">
+        <v>186</v>
+      </c>
+      <c r="G114" t="s">
+        <v>270</v>
+      </c>
+      <c r="I114" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="1">
+        <v>4553</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+      <c r="D115" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" t="s">
+        <v>187</v>
+      </c>
+      <c r="G115" t="s">
+        <v>270</v>
+      </c>
+      <c r="I115" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="1">
+        <v>4554</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" t="s">
+        <v>66</v>
+      </c>
+      <c r="F116" t="s">
+        <v>188</v>
+      </c>
+      <c r="G116" t="s">
+        <v>270</v>
+      </c>
+      <c r="I116" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1">
+        <v>4555</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" t="s">
+        <v>189</v>
+      </c>
+      <c r="G117" t="s">
+        <v>270</v>
+      </c>
+      <c r="I117" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1">
+        <v>4556</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" t="s">
+        <v>190</v>
+      </c>
+      <c r="G118" t="s">
+        <v>270</v>
+      </c>
+      <c r="I118" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1">
+        <v>4557</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s">
+        <v>50</v>
+      </c>
+      <c r="E119" t="s">
+        <v>67</v>
+      </c>
+      <c r="F119" t="s">
+        <v>191</v>
+      </c>
+      <c r="G119" t="s">
+        <v>270</v>
+      </c>
+      <c r="I119" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1">
+        <v>4558</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" t="s">
+        <v>192</v>
+      </c>
+      <c r="G120" t="s">
+        <v>270</v>
+      </c>
+      <c r="I120" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1">
+        <v>4559</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" t="s">
+        <v>193</v>
+      </c>
+      <c r="G121" t="s">
+        <v>270</v>
+      </c>
+      <c r="I121" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1">
+        <v>4560</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>56</v>
+      </c>
+      <c r="E122" t="s">
+        <v>69</v>
+      </c>
+      <c r="F122" t="s">
+        <v>194</v>
+      </c>
+      <c r="G122" t="s">
+        <v>270</v>
+      </c>
+      <c r="I122" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1">
+        <v>4561</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" t="s">
+        <v>69</v>
+      </c>
+      <c r="F123" t="s">
+        <v>195</v>
+      </c>
+      <c r="G123" t="s">
+        <v>270</v>
+      </c>
+      <c r="I123" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1">
+        <v>4562</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" t="s">
+        <v>69</v>
+      </c>
+      <c r="F124" t="s">
+        <v>196</v>
+      </c>
+      <c r="G124" t="s">
+        <v>270</v>
+      </c>
+      <c r="I124" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1">
+        <v>4563</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" t="s">
+        <v>56</v>
+      </c>
+      <c r="E125" t="s">
+        <v>69</v>
+      </c>
+      <c r="F125" t="s">
+        <v>197</v>
+      </c>
+      <c r="G125" t="s">
+        <v>270</v>
+      </c>
+      <c r="I125" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1">
+        <v>4564</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>56</v>
+      </c>
+      <c r="E126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F126" t="s">
+        <v>198</v>
+      </c>
+      <c r="G126" t="s">
+        <v>270</v>
+      </c>
+      <c r="I126" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1">
+        <v>4565</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E127" t="s">
+        <v>70</v>
+      </c>
+      <c r="F127" t="s">
+        <v>199</v>
+      </c>
+      <c r="G127" t="s">
+        <v>270</v>
+      </c>
+      <c r="I127" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1">
+        <v>4566</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s">
+        <v>57</v>
+      </c>
+      <c r="E128" t="s">
+        <v>70</v>
+      </c>
+      <c r="F128" t="s">
+        <v>200</v>
+      </c>
+      <c r="G128" t="s">
+        <v>270</v>
+      </c>
+      <c r="I128" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1">
+        <v>4567</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" t="s">
+        <v>70</v>
+      </c>
+      <c r="F129" t="s">
+        <v>201</v>
+      </c>
+      <c r="G129" t="s">
+        <v>270</v>
+      </c>
+      <c r="I129" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1">
+        <v>4568</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" t="s">
+        <v>57</v>
+      </c>
+      <c r="E130" t="s">
+        <v>70</v>
+      </c>
+      <c r="F130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G130" t="s">
+        <v>270</v>
+      </c>
+      <c r="I130" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1">
+        <v>4576</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" t="s">
+        <v>71</v>
+      </c>
+      <c r="F131" t="s">
+        <v>203</v>
+      </c>
+      <c r="G131" t="s">
+        <v>270</v>
+      </c>
+      <c r="I131" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1">
+        <v>4577</v>
+      </c>
+      <c r="B132" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>71</v>
+      </c>
+      <c r="F132" t="s">
+        <v>204</v>
+      </c>
+      <c r="G132" t="s">
+        <v>270</v>
+      </c>
+      <c r="I132" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1">
+        <v>4578</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" t="s">
+        <v>58</v>
+      </c>
+      <c r="E133" t="s">
+        <v>71</v>
+      </c>
+      <c r="F133" t="s">
+        <v>205</v>
+      </c>
+      <c r="G133" t="s">
+        <v>270</v>
+      </c>
+      <c r="I133" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1">
+        <v>4579</v>
+      </c>
+      <c r="B134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134" t="s">
+        <v>71</v>
+      </c>
+      <c r="F134" t="s">
+        <v>206</v>
+      </c>
+      <c r="G134" t="s">
+        <v>270</v>
+      </c>
+      <c r="I134" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="1">
+        <v>4580</v>
+      </c>
+      <c r="B135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" t="s">
+        <v>71</v>
+      </c>
+      <c r="F135" t="s">
+        <v>207</v>
+      </c>
+      <c r="G135" t="s">
+        <v>270</v>
+      </c>
+      <c r="I135" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1">
+        <v>4581</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" t="s">
+        <v>58</v>
+      </c>
+      <c r="E136" t="s">
+        <v>71</v>
+      </c>
+      <c r="F136" t="s">
+        <v>208</v>
+      </c>
+      <c r="G136" t="s">
+        <v>270</v>
+      </c>
+      <c r="I136" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1">
+        <v>4582</v>
+      </c>
+      <c r="B137" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" t="s">
+        <v>71</v>
+      </c>
+      <c r="F137" t="s">
+        <v>209</v>
+      </c>
+      <c r="G137" t="s">
+        <v>270</v>
+      </c>
+      <c r="I137" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>4583</v>
+      </c>
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" t="s">
+        <v>210</v>
+      </c>
+      <c r="G138" t="s">
+        <v>270</v>
+      </c>
+      <c r="I138" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1">
+        <v>4584</v>
+      </c>
+      <c r="B139" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139" t="s">
+        <v>49</v>
+      </c>
+      <c r="F139" t="s">
+        <v>211</v>
+      </c>
+      <c r="G139" t="s">
+        <v>270</v>
+      </c>
+      <c r="I139" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1">
+        <v>4585</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D140" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140" t="s">
+        <v>49</v>
+      </c>
+      <c r="F140" t="s">
+        <v>212</v>
+      </c>
+      <c r="G140" t="s">
+        <v>270</v>
+      </c>
+      <c r="I140" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1">
+        <v>4586</v>
+      </c>
+      <c r="B141" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" t="s">
+        <v>59</v>
+      </c>
+      <c r="E141" t="s">
+        <v>49</v>
+      </c>
+      <c r="F141" t="s">
+        <v>213</v>
+      </c>
+      <c r="G141" t="s">
+        <v>270</v>
+      </c>
+      <c r="I141" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="1">
+        <v>4587</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" t="s">
+        <v>43</v>
+      </c>
+      <c r="D142" t="s">
+        <v>60</v>
+      </c>
+      <c r="E142" t="s">
+        <v>48</v>
+      </c>
+      <c r="F142" t="s">
+        <v>214</v>
+      </c>
+      <c r="G142" t="s">
+        <v>270</v>
+      </c>
+      <c r="I142" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1">
+        <v>4588</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" t="s">
+        <v>60</v>
+      </c>
+      <c r="E143" t="s">
+        <v>48</v>
+      </c>
+      <c r="F143" t="s">
+        <v>215</v>
+      </c>
+      <c r="G143" t="s">
+        <v>270</v>
+      </c>
+      <c r="I143" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1">
+        <v>4589</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" t="s">
+        <v>60</v>
+      </c>
+      <c r="E144" t="s">
+        <v>48</v>
+      </c>
+      <c r="F144" t="s">
+        <v>216</v>
+      </c>
+      <c r="G144" t="s">
+        <v>270</v>
+      </c>
+      <c r="I144" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1">
+        <v>4590</v>
+      </c>
+      <c r="B145" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" t="s">
+        <v>60</v>
+      </c>
+      <c r="E145" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145" t="s">
+        <v>217</v>
+      </c>
+      <c r="G145" t="s">
+        <v>270</v>
+      </c>
+      <c r="I145" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1">
+        <v>4591</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" t="s">
+        <v>60</v>
+      </c>
+      <c r="E146" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" t="s">
+        <v>218</v>
+      </c>
+      <c r="G146" t="s">
+        <v>270</v>
+      </c>
+      <c r="I146" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1">
+        <v>4592</v>
+      </c>
+      <c r="B147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147" t="s">
+        <v>72</v>
+      </c>
+      <c r="F147" t="s">
+        <v>219</v>
+      </c>
+      <c r="G147" t="s">
+        <v>270</v>
+      </c>
+      <c r="I147" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1">
+        <v>4593</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" t="s">
+        <v>61</v>
+      </c>
+      <c r="E148" t="s">
+        <v>72</v>
+      </c>
+      <c r="F148" t="s">
+        <v>220</v>
+      </c>
+      <c r="G148" t="s">
+        <v>270</v>
+      </c>
+      <c r="I148" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1">
+        <v>4594</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" t="s">
+        <v>61</v>
+      </c>
+      <c r="E149" t="s">
+        <v>72</v>
+      </c>
+      <c r="F149" t="s">
+        <v>221</v>
+      </c>
+      <c r="G149" t="s">
+        <v>270</v>
+      </c>
+      <c r="I149" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1">
+        <v>4595</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>61</v>
+      </c>
+      <c r="E150" t="s">
+        <v>72</v>
+      </c>
+      <c r="F150" t="s">
+        <v>222</v>
+      </c>
+      <c r="G150" t="s">
+        <v>270</v>
+      </c>
+      <c r="I150" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1">
+        <v>4601</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" t="s">
+        <v>33</v>
+      </c>
+      <c r="D151" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" t="s">
+        <v>58</v>
+      </c>
+      <c r="F151" t="s">
+        <v>223</v>
+      </c>
+      <c r="G151" t="s">
+        <v>270</v>
+      </c>
+      <c r="I151" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1">
+        <v>4602</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" t="s">
+        <v>33</v>
+      </c>
+      <c r="D152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" t="s">
+        <v>58</v>
+      </c>
+      <c r="F152" t="s">
+        <v>224</v>
+      </c>
+      <c r="G152" t="s">
+        <v>270</v>
+      </c>
+      <c r="I152" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1">
+        <v>4603</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" t="s">
+        <v>33</v>
+      </c>
+      <c r="D153" t="s">
+        <v>53</v>
+      </c>
+      <c r="E153" t="s">
+        <v>58</v>
+      </c>
+      <c r="F153" t="s">
+        <v>225</v>
+      </c>
+      <c r="G153" t="s">
+        <v>270</v>
+      </c>
+      <c r="I153" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1">
+        <v>4604</v>
+      </c>
+      <c r="B154" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" t="s">
+        <v>58</v>
+      </c>
+      <c r="F154" t="s">
+        <v>226</v>
+      </c>
+      <c r="G154" t="s">
+        <v>270</v>
+      </c>
+      <c r="I154" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1">
+        <v>4605</v>
+      </c>
+      <c r="B155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" t="s">
+        <v>54</v>
+      </c>
+      <c r="E155" t="s">
+        <v>63</v>
+      </c>
+      <c r="F155" t="s">
+        <v>227</v>
+      </c>
+      <c r="G155" t="s">
+        <v>270</v>
+      </c>
+      <c r="I155" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1">
+        <v>4606</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" t="s">
+        <v>63</v>
+      </c>
+      <c r="F156" t="s">
+        <v>228</v>
+      </c>
+      <c r="G156" t="s">
+        <v>270</v>
+      </c>
+      <c r="I156" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1">
+        <v>4607</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" t="s">
+        <v>54</v>
+      </c>
+      <c r="E157" t="s">
+        <v>63</v>
+      </c>
+      <c r="F157" t="s">
+        <v>229</v>
+      </c>
+      <c r="G157" t="s">
+        <v>270</v>
+      </c>
+      <c r="I157" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1">
+        <v>4608</v>
+      </c>
+      <c r="B158" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" t="s">
+        <v>54</v>
+      </c>
+      <c r="E158" t="s">
+        <v>63</v>
+      </c>
+      <c r="F158" t="s">
+        <v>230</v>
+      </c>
+      <c r="G158" t="s">
+        <v>270</v>
+      </c>
+      <c r="I158" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1">
+        <v>4609</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" t="s">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>73</v>
+      </c>
+      <c r="F159" t="s">
+        <v>231</v>
+      </c>
+      <c r="G159" t="s">
+        <v>270</v>
+      </c>
+      <c r="I159" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1">
+        <v>4610</v>
+      </c>
+      <c r="B160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" t="s">
+        <v>62</v>
+      </c>
+      <c r="E160" t="s">
+        <v>73</v>
+      </c>
+      <c r="F160" t="s">
+        <v>232</v>
+      </c>
+      <c r="G160" t="s">
+        <v>270</v>
+      </c>
+      <c r="I160" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1">
+        <v>4611</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" t="s">
+        <v>62</v>
+      </c>
+      <c r="E161" t="s">
+        <v>73</v>
+      </c>
+      <c r="F161" t="s">
+        <v>233</v>
+      </c>
+      <c r="G161" t="s">
+        <v>270</v>
+      </c>
+      <c r="I161" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1">
+        <v>4612</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" t="s">
+        <v>62</v>
+      </c>
+      <c r="E162" t="s">
+        <v>73</v>
+      </c>
+      <c r="F162" t="s">
+        <v>234</v>
+      </c>
+      <c r="G162" t="s">
+        <v>270</v>
+      </c>
+      <c r="I162" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1">
+        <v>4613</v>
+      </c>
+      <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" t="s">
+        <v>62</v>
+      </c>
+      <c r="E163" t="s">
+        <v>73</v>
+      </c>
+      <c r="F163" t="s">
+        <v>235</v>
+      </c>
+      <c r="G163" t="s">
+        <v>270</v>
+      </c>
+      <c r="I163" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1">
+        <v>4614</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" t="s">
+        <v>41</v>
+      </c>
+      <c r="D164" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" t="s">
+        <v>70</v>
+      </c>
+      <c r="F164" t="s">
+        <v>236</v>
+      </c>
+      <c r="G164" t="s">
+        <v>270</v>
+      </c>
+      <c r="I164" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1">
+        <v>4615</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" t="s">
+        <v>70</v>
+      </c>
+      <c r="F165" t="s">
+        <v>237</v>
+      </c>
+      <c r="G165" t="s">
+        <v>270</v>
+      </c>
+      <c r="I165" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1">
+        <v>4616</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" t="s">
+        <v>70</v>
+      </c>
+      <c r="F166" t="s">
+        <v>238</v>
+      </c>
+      <c r="G166" t="s">
+        <v>270</v>
+      </c>
+      <c r="I166" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1">
+        <v>4617</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E167" t="s">
+        <v>70</v>
+      </c>
+      <c r="F167" t="s">
+        <v>239</v>
+      </c>
+      <c r="G167" t="s">
+        <v>270</v>
+      </c>
+      <c r="I167" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1">
+        <v>4618</v>
+      </c>
+      <c r="B168" t="s">
+        <v>28</v>
+      </c>
+      <c r="C168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" t="s">
+        <v>47</v>
+      </c>
+      <c r="E168" t="s">
+        <v>59</v>
+      </c>
+      <c r="F168" t="s">
+        <v>240</v>
+      </c>
+      <c r="G168" t="s">
+        <v>270</v>
+      </c>
+      <c r="I168" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1">
+        <v>4619</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" t="s">
+        <v>47</v>
+      </c>
+      <c r="E169" t="s">
+        <v>59</v>
+      </c>
+      <c r="F169" t="s">
+        <v>241</v>
+      </c>
+      <c r="G169" t="s">
+        <v>270</v>
+      </c>
+      <c r="I169" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1">
+        <v>4620</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" t="s">
+        <v>47</v>
+      </c>
+      <c r="E170" t="s">
+        <v>59</v>
+      </c>
+      <c r="F170" t="s">
+        <v>242</v>
+      </c>
+      <c r="G170" t="s">
+        <v>270</v>
+      </c>
+      <c r="I170" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1">
+        <v>4621</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" t="s">
+        <v>47</v>
+      </c>
+      <c r="E171" t="s">
+        <v>59</v>
+      </c>
+      <c r="F171" t="s">
+        <v>243</v>
+      </c>
+      <c r="G171" t="s">
+        <v>270</v>
+      </c>
+      <c r="I171" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1">
+        <v>4622</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s">
+        <v>47</v>
+      </c>
+      <c r="E172" t="s">
+        <v>59</v>
+      </c>
+      <c r="F172" t="s">
+        <v>244</v>
+      </c>
+      <c r="G172" t="s">
+        <v>270</v>
+      </c>
+      <c r="I172" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1">
+        <v>4623</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" t="s">
+        <v>47</v>
+      </c>
+      <c r="E173" t="s">
+        <v>59</v>
+      </c>
+      <c r="F173" t="s">
+        <v>245</v>
+      </c>
+      <c r="G173" t="s">
+        <v>270</v>
+      </c>
+      <c r="I173" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1">
+        <v>4624</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" t="s">
+        <v>47</v>
+      </c>
+      <c r="E174" t="s">
+        <v>59</v>
+      </c>
+      <c r="F174" t="s">
+        <v>246</v>
+      </c>
+      <c r="G174" t="s">
+        <v>270</v>
+      </c>
+      <c r="I174" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1">
+        <v>4625</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" t="s">
+        <v>47</v>
+      </c>
+      <c r="E175" t="s">
+        <v>59</v>
+      </c>
+      <c r="F175" t="s">
+        <v>247</v>
+      </c>
+      <c r="G175" t="s">
+        <v>270</v>
+      </c>
+      <c r="I175" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1">
+        <v>4626</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" t="s">
+        <v>63</v>
+      </c>
+      <c r="E176" t="s">
+        <v>50</v>
+      </c>
+      <c r="F176" t="s">
+        <v>248</v>
+      </c>
+      <c r="G176" t="s">
+        <v>270</v>
+      </c>
+      <c r="I176" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1">
+        <v>4627</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" t="s">
+        <v>63</v>
+      </c>
+      <c r="E177" t="s">
+        <v>50</v>
+      </c>
+      <c r="F177" t="s">
+        <v>249</v>
+      </c>
+      <c r="G177" t="s">
+        <v>270</v>
+      </c>
+      <c r="I177" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1">
+        <v>4628</v>
+      </c>
+      <c r="B178" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>33</v>
+      </c>
+      <c r="D178" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" t="s">
+        <v>50</v>
+      </c>
+      <c r="F178" t="s">
+        <v>250</v>
+      </c>
+      <c r="G178" t="s">
+        <v>270</v>
+      </c>
+      <c r="I178" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1">
+        <v>4629</v>
+      </c>
+      <c r="B179" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" t="s">
+        <v>50</v>
+      </c>
+      <c r="F179" t="s">
+        <v>251</v>
+      </c>
+      <c r="G179" t="s">
+        <v>270</v>
+      </c>
+      <c r="I179" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1">
+        <v>4630</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s">
+        <v>63</v>
+      </c>
+      <c r="E180" t="s">
+        <v>50</v>
+      </c>
+      <c r="F180" t="s">
+        <v>252</v>
+      </c>
+      <c r="G180" t="s">
+        <v>270</v>
+      </c>
+      <c r="I180" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1">
+        <v>4631</v>
+      </c>
+      <c r="B181" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" t="s">
+        <v>63</v>
+      </c>
+      <c r="E181" t="s">
+        <v>50</v>
+      </c>
+      <c r="F181" t="s">
+        <v>253</v>
+      </c>
+      <c r="G181" t="s">
+        <v>270</v>
+      </c>
+      <c r="I181" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1">
+        <v>4632</v>
+      </c>
+      <c r="B182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" t="s">
+        <v>52</v>
+      </c>
+      <c r="F182" t="s">
+        <v>254</v>
+      </c>
+      <c r="G182" t="s">
+        <v>270</v>
+      </c>
+      <c r="I182" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1">
+        <v>4633</v>
+      </c>
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" t="s">
+        <v>32</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" t="s">
+        <v>52</v>
+      </c>
+      <c r="F183" t="s">
+        <v>255</v>
+      </c>
+      <c r="G183" t="s">
+        <v>270</v>
+      </c>
+      <c r="I183" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1">
+        <v>4634</v>
+      </c>
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" t="s">
+        <v>52</v>
+      </c>
+      <c r="F184" t="s">
+        <v>256</v>
+      </c>
+      <c r="G184" t="s">
+        <v>270</v>
+      </c>
+      <c r="I184" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1">
+        <v>4635</v>
+      </c>
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" t="s">
+        <v>257</v>
+      </c>
+      <c r="G185" t="s">
+        <v>270</v>
+      </c>
+      <c r="I185" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1">
+        <v>4636</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" t="s">
+        <v>52</v>
+      </c>
+      <c r="F186" t="s">
+        <v>258</v>
+      </c>
+      <c r="G186" t="s">
+        <v>270</v>
+      </c>
+      <c r="I186" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1">
+        <v>4637</v>
+      </c>
+      <c r="B187" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" t="s">
+        <v>32</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" t="s">
+        <v>52</v>
+      </c>
+      <c r="F187" t="s">
+        <v>259</v>
+      </c>
+      <c r="G187" t="s">
+        <v>270</v>
+      </c>
+      <c r="I187" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1">
+        <v>4638</v>
+      </c>
+      <c r="B188" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" t="s">
+        <v>52</v>
+      </c>
+      <c r="F188" t="s">
+        <v>260</v>
+      </c>
+      <c r="G188" t="s">
+        <v>270</v>
+      </c>
+      <c r="I188" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1">
+        <v>4639</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" t="s">
+        <v>65</v>
+      </c>
+      <c r="E189" t="s">
+        <v>64</v>
+      </c>
+      <c r="F189" t="s">
+        <v>261</v>
+      </c>
+      <c r="G189" t="s">
+        <v>270</v>
+      </c>
+      <c r="I189" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1">
+        <v>4640</v>
+      </c>
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" t="s">
+        <v>65</v>
+      </c>
+      <c r="E190" t="s">
+        <v>64</v>
+      </c>
+      <c r="F190" t="s">
+        <v>262</v>
+      </c>
+      <c r="G190" t="s">
+        <v>270</v>
+      </c>
+      <c r="I190" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1">
+        <v>4641</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191" t="s">
+        <v>65</v>
+      </c>
+      <c r="E191" t="s">
+        <v>64</v>
+      </c>
+      <c r="F191" t="s">
+        <v>263</v>
+      </c>
+      <c r="G191" t="s">
+        <v>270</v>
+      </c>
+      <c r="I191" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1">
+        <v>4642</v>
+      </c>
+      <c r="B192" t="s">
+        <v>30</v>
+      </c>
+      <c r="C192" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" t="s">
+        <v>65</v>
+      </c>
+      <c r="E192" t="s">
+        <v>64</v>
+      </c>
+      <c r="F192" t="s">
+        <v>264</v>
+      </c>
+      <c r="G192" t="s">
+        <v>270</v>
+      </c>
+      <c r="I192" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1">
+        <v>4643</v>
+      </c>
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" t="s">
+        <v>65</v>
+      </c>
+      <c r="E193" t="s">
+        <v>64</v>
+      </c>
+      <c r="F193" t="s">
+        <v>265</v>
+      </c>
+      <c r="G193" t="s">
+        <v>270</v>
+      </c>
+      <c r="I193" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1">
+        <v>4644</v>
+      </c>
+      <c r="B194" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" t="s">
+        <v>65</v>
+      </c>
+      <c r="E194" t="s">
+        <v>64</v>
+      </c>
+      <c r="F194" t="s">
+        <v>266</v>
+      </c>
+      <c r="G194" t="s">
+        <v>270</v>
+      </c>
+      <c r="I194" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1">
+        <v>4645</v>
+      </c>
+      <c r="B195" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" t="s">
+        <v>65</v>
+      </c>
+      <c r="E195" t="s">
+        <v>64</v>
+      </c>
+      <c r="F195" t="s">
+        <v>267</v>
+      </c>
+      <c r="G195" t="s">
+        <v>270</v>
+      </c>
+      <c r="I195" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1">
+        <v>4646</v>
+      </c>
+      <c r="B196" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" t="s">
+        <v>65</v>
+      </c>
+      <c r="E196" t="s">
+        <v>64</v>
+      </c>
+      <c r="F196" t="s">
+        <v>268</v>
+      </c>
+      <c r="G196" t="s">
+        <v>270</v>
+      </c>
+      <c r="I196" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1">
+        <v>4647</v>
+      </c>
+      <c r="B197" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" t="s">
+        <v>32</v>
+      </c>
+      <c r="D197" t="s">
+        <v>65</v>
+      </c>
+      <c r="E197" t="s">
+        <v>64</v>
+      </c>
+      <c r="F197" t="s">
+        <v>269</v>
+      </c>
+      <c r="G197" t="s">
+        <v>270</v>
+      </c>
+      <c r="I197" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/download_file/tra_download_list.xlsx
+++ b/Documents/download_file/tra_download_list.xlsx
@@ -3856,7 +3856,7 @@
     <t>{'Assessing/Assessing_47bbee8a-adee-493f-a9a6-086fda7cb81f.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_ac686423-165c-4fd2-8b5b-b3754562c7e6_DFU_Patient_201-023_Left_Plantar_1_AO_Assessing.png', 'Assessing/Assessing_ac686423-165c-4fd2-8b5b-b3754562c7e6.tif'}</t>
+    <t>{'Assessing/Assessing_ac686423-165c-4fd2-8b5b-b3754562c7e6.tif', 'Assessing/Assessing_ac686423-165c-4fd2-8b5b-b3754562c7e6_DFU_Patient_201-023_Left_Plantar_1_AO_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_764e7b37-21db-4f89-a263-06cfbe2df046.tif'}</t>
